--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_full_speed_coherence.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_full_speed_coherence.xlsx
@@ -532,58 +532,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.235733509063721</v>
+        <v>3.818217515945435</v>
       </c>
       <c r="C2" t="n">
-        <v>3.564910411834717</v>
+        <v>5.091162204742432</v>
       </c>
       <c r="D2" t="n">
-        <v>7.00639009475708</v>
+        <v>4.881697654724121</v>
       </c>
       <c r="E2" t="n">
-        <v>4.538768768310547</v>
+        <v>6.847381114959717</v>
       </c>
       <c r="F2" t="n">
-        <v>3.863324880599976</v>
+        <v>5.115416526794434</v>
       </c>
       <c r="G2" t="n">
-        <v>4.777953624725342</v>
+        <v>5.689270496368408</v>
       </c>
       <c r="H2" t="n">
-        <v>3.567603349685669</v>
+        <v>4.465793609619141</v>
       </c>
       <c r="I2" t="n">
-        <v>4.295719623565674</v>
+        <v>4.105043888092041</v>
       </c>
       <c r="J2" t="n">
-        <v>7.207483291625977</v>
+        <v>8.49950122833252</v>
       </c>
       <c r="K2" t="n">
-        <v>10.32924365997314</v>
+        <v>12.74687194824219</v>
       </c>
       <c r="L2" t="n">
-        <v>3.221493482589722</v>
+        <v>4.205846309661865</v>
       </c>
       <c r="M2" t="n">
-        <v>5.255833625793457</v>
+        <v>6.52453088760376</v>
       </c>
       <c r="N2" t="n">
-        <v>4.09636402130127</v>
+        <v>4.776368618011475</v>
       </c>
       <c r="O2" t="n">
-        <v>4.30710506439209</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="P2" t="n">
-        <v>4.784353256225586</v>
+        <v>5.799694061279297</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.126500129699707</v>
+        <v>6.186770915985107</v>
       </c>
       <c r="R2" t="n">
-        <v>4.918461322784424</v>
+        <v>5.259459495544434</v>
       </c>
       <c r="S2" t="n">
-        <v>24.4758186340332</v>
+        <v>27.78073501586914</v>
       </c>
     </row>
     <row r="3">
@@ -593,58 +593,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8285718303406219</v>
+        <v>0.8502123924317183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8653814618180438</v>
+        <v>0.9020726683868129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8914053999559974</v>
+        <v>0.903517179868438</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8906982591125503</v>
+        <v>0.9380191547799404</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8827405515963656</v>
+        <v>0.9111889687677225</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9611082358328816</v>
+        <v>0.9608659817190731</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8175622618888035</v>
+        <v>0.9061388599175264</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8402034382875792</v>
+        <v>0.8602286925642553</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8977104879372957</v>
+        <v>0.9149599305327007</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9636042907431319</v>
+        <v>0.9636153381826594</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8378965096040205</v>
+        <v>0.8733665013924623</v>
       </c>
       <c r="M3" t="n">
-        <v>0.851707601186001</v>
+        <v>0.8730841780391833</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8594138224919637</v>
+        <v>0.9294682987575424</v>
       </c>
       <c r="O3" t="n">
-        <v>0.937232746105445</v>
+        <v>0.9523546334723352</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9354042305665857</v>
+        <v>0.9432972937214131</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9301928997039794</v>
+        <v>0.9559317373981079</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9012995706154749</v>
+        <v>0.9369867025194941</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9743054682558233</v>
+        <v>0.959746366038042</v>
       </c>
     </row>
   </sheetData>
